--- a/src/main/resources/gsis/excel/jgBtitle/b01.xlsx
+++ b/src/main/resources/gsis/excel/jgBtitle/b01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/문서/2021/15.성인지통계DB포털/2021-08-20공유/파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infomind_total\Infomind_Project\gsis.kwdi.re.kr\src\main\resources\gsis\excel\jgBtitle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1542816-6B41-0F48-B64E-B342CADC4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B33A81-CC1E-4064-8216-0C0B0E567C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1720" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29070" yWindow="1155" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-5" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>0~5세 인구</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -118,6 +118,50 @@
   </si>
   <si>
     <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.6314655172414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.5516304347826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.6515791814947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.7337478801583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.6975418395281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.3257164209135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.1244202226345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.6437810402227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.5649332196647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.5731237021655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.4597381238535</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,21 +588,21 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -581,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,15 +641,14 @@
       <c r="E2" s="3">
         <v>17895</v>
       </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F12" si="0">D2/C2*100</f>
-        <v>48.124420222634505</v>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,15 +664,14 @@
       <c r="E3" s="3">
         <v>17978</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>48.325716420913459</v>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,15 +687,14 @@
       <c r="E4" s="3">
         <v>18178</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>48.697541839528128</v>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -669,15 +710,14 @@
       <c r="E5" s="3">
         <v>18138</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>48.733747880158276</v>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -693,15 +733,14 @@
       <c r="E6" s="3">
         <v>18469</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>48.651579181494661</v>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -717,15 +756,14 @@
       <c r="E7" s="3">
         <v>18933</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>48.551630434782609</v>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -741,15 +779,14 @@
       <c r="E8" s="3">
         <v>19068</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>48.631465517241381</v>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -765,15 +802,14 @@
       <c r="E9" s="3">
         <v>18820</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>48.64378104022267</v>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -789,15 +825,14 @@
       <c r="E10" s="3">
         <v>18100</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>48.564933219664681</v>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -813,15 +848,14 @@
       <c r="E11" s="3">
         <v>17336</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>48.573123702165525</v>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
@@ -837,9 +871,8 @@
       <c r="E12" s="3">
         <v>16296</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>48.459738123853505</v>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
